--- a/biology/Médecine/Lame_prévertébrale_du_fascia_cervical/Lame_prévertébrale_du_fascia_cervical.xlsx
+++ b/biology/Médecine/Lame_prévertébrale_du_fascia_cervical/Lame_prévertébrale_du_fascia_cervical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lame_pr%C3%A9vert%C3%A9brale_du_fascia_cervical</t>
+          <t>Lame_prévertébrale_du_fascia_cervical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lame prévertébrale du fascia cervical (ou aponévrose cervicale profonde) est la partie profonde du fascia cervical.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lame_pr%C3%A9vert%C3%A9brale_du_fascia_cervical</t>
+          <t>Lame_prévertébrale_du_fascia_cervical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La lame prévertébrale du fascia cervical est une aponévrose qui recouvre les muscles prévertébraux et les muscles scalènes.
 Elle forme la limite postérieure d'un compartiment fibreux, qui contient le larynx et la trachée, la glande thyroïde, le pharynx et l'œsophage.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lame_pr%C3%A9vert%C3%A9brale_du_fascia_cervical</t>
+          <t>Lame_prévertébrale_du_fascia_cervical</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Insertion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En haut, la lame prévertébrale du fascia cervical est fixé à la base du crâne et aux tubercules antérieurs des processus transverses des vertèbres cervicales.
 Sous la clavicule elle s'attache à la face profonde du fascia clavi-pectoral.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lame_pr%C3%A9vert%C3%A9brale_du_fascia_cervical</t>
+          <t>Lame_prévertébrale_du_fascia_cervical</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Variantes descriptives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certaines publications, il est considéré que la lame prévertébrale du fascia cervical comprend deux couches, une pré-vertébrale proprement dite. Et une autre latérale ou pré-musculaire qui engaine les branches antérieures des nerfs spinaux au niveau du rachis.
 </t>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lame_pr%C3%A9vert%C3%A9brale_du_fascia_cervical</t>
+          <t>Lame_prévertébrale_du_fascia_cervical</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du fait de la structure de la lame prévertébrale du fascia cervical, l'espace rétropharyngien est en rapport avec l'espace thoracique par l'intermédiaire de l'espace sus-claviculaire. Cette zone est considérée comme une zone de danger pour la propagation des infections entre les deux zones[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du fait de la structure de la lame prévertébrale du fascia cervical, l'espace rétropharyngien est en rapport avec l'espace thoracique par l'intermédiaire de l'espace sus-claviculaire. Cette zone est considérée comme une zone de danger pour la propagation des infections entre les deux zones.
 </t>
         </is>
       </c>
